--- a/modelos/OBAGRA4491074/OBAGRA4491074_Sell Out_metricas.xlsx
+++ b/modelos/OBAGRA4491074/OBAGRA4491074_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45022</v>
       </c>
       <c r="B2" t="n">
-        <v>86.94416116448966</v>
+        <v>88.05210916128928</v>
       </c>
       <c r="C2" t="n">
-        <v>73.7416568098042</v>
+        <v>74.89825663785713</v>
       </c>
       <c r="D2" t="n">
-        <v>101.1089826448834</v>
+        <v>102.7026415743961</v>
       </c>
       <c r="E2" t="n">
         <v>66</v>
@@ -496,13 +496,13 @@
         <v>45027</v>
       </c>
       <c r="B3" t="n">
-        <v>82.01151749135219</v>
+        <v>84.48462323951898</v>
       </c>
       <c r="C3" t="n">
-        <v>66.57356068362648</v>
+        <v>71.05099760949973</v>
       </c>
       <c r="D3" t="n">
-        <v>96.47397629473676</v>
+        <v>98.78624893563509</v>
       </c>
       <c r="E3" t="n">
         <v>66</v>
@@ -516,13 +516,13 @@
         <v>45040</v>
       </c>
       <c r="B4" t="n">
-        <v>85.85284957441665</v>
+        <v>81.49540972831298</v>
       </c>
       <c r="C4" t="n">
-        <v>70.93436267896823</v>
+        <v>66.45461472633754</v>
       </c>
       <c r="D4" t="n">
-        <v>100.9407978430252</v>
+        <v>95.07906983459162</v>
       </c>
       <c r="E4" t="n">
         <v>83</v>
@@ -536,13 +536,13 @@
         <v>45056</v>
       </c>
       <c r="B5" t="n">
-        <v>81.60058271339535</v>
+        <v>83.76882844528247</v>
       </c>
       <c r="C5" t="n">
-        <v>67.50544555482571</v>
+        <v>69.1964476613762</v>
       </c>
       <c r="D5" t="n">
-        <v>94.5289734042864</v>
+        <v>97.41814812550635</v>
       </c>
       <c r="E5" t="n">
         <v>108</v>
@@ -556,13 +556,13 @@
         <v>45063</v>
       </c>
       <c r="B6" t="n">
-        <v>91.80765328765209</v>
+        <v>93.49409359482573</v>
       </c>
       <c r="C6" t="n">
-        <v>76.83619696709161</v>
+        <v>78.50482660807924</v>
       </c>
       <c r="D6" t="n">
-        <v>105.8897354714298</v>
+        <v>107.7447320318659</v>
       </c>
       <c r="E6" t="n">
         <v>73</v>
@@ -637,22 +637,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>256.3686923758772</v>
+        <v>341.6812963069652</v>
       </c>
       <c r="C2" t="n">
-        <v>16.01151749135219</v>
+        <v>18.48462323951898</v>
       </c>
       <c r="D2" t="n">
-        <v>16.01151749135219</v>
+        <v>18.48462323951898</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2425987498689726</v>
+        <v>0.2800700490836209</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2425987498689726</v>
+        <v>0.2800700490836209</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2163550210514893</v>
+        <v>0.2456679339270154</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -663,22 +663,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>438.6578868841167</v>
+        <v>486.2955184614186</v>
       </c>
       <c r="C3" t="n">
-        <v>20.94416116448966</v>
+        <v>22.05210916128928</v>
       </c>
       <c r="D3" t="n">
-        <v>20.94416116448966</v>
+        <v>22.05210916128928</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3173357752195403</v>
+        <v>0.3341228660801406</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3173357752195403</v>
+        <v>0.3341228660801406</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2738798396097574</v>
+        <v>0.2862941543786485</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -689,22 +689,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>352.9319353183533</v>
+        <v>336.4737796910947</v>
       </c>
       <c r="C4" t="n">
-        <v>18.78648278199923</v>
+        <v>18.3432216279228</v>
       </c>
       <c r="D4" t="n">
-        <v>16.01997338289113</v>
+        <v>15.40995180707676</v>
       </c>
       <c r="E4" t="n">
-        <v>0.178816605567247</v>
+        <v>0.174410433787933</v>
       </c>
       <c r="F4" t="n">
-        <v>0.244439048950043</v>
+        <v>0.2243626995807179</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1801675286197668</v>
+        <v>0.1723965800592314</v>
       </c>
       <c r="H4" t="n">
         <v>0.3333333333333334</v>

--- a/modelos/OBAGRA4491074/OBAGRA4491074_Sell Out_metricas.xlsx
+++ b/modelos/OBAGRA4491074/OBAGRA4491074_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,101 +473,81 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45022</v>
+        <v>45027</v>
       </c>
       <c r="B2" t="n">
-        <v>88.05210916128928</v>
+        <v>81.31304422178188</v>
       </c>
       <c r="C2" t="n">
-        <v>74.89825663785713</v>
+        <v>63.68578079740745</v>
       </c>
       <c r="D2" t="n">
-        <v>102.7026415743961</v>
+        <v>98.69556262499847</v>
       </c>
       <c r="E2" t="n">
         <v>66</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45019</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="B3" t="n">
-        <v>84.48462323951898</v>
+        <v>82.45175114335096</v>
       </c>
       <c r="C3" t="n">
-        <v>71.05099760949973</v>
+        <v>64.69549099774923</v>
       </c>
       <c r="D3" t="n">
-        <v>98.78624893563509</v>
+        <v>99.56102245951895</v>
       </c>
       <c r="E3" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45026</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45040</v>
+        <v>45056</v>
       </c>
       <c r="B4" t="n">
-        <v>81.49540972831298</v>
+        <v>80.83758026023125</v>
       </c>
       <c r="C4" t="n">
-        <v>66.45461472633754</v>
+        <v>64.15466120700955</v>
       </c>
       <c r="D4" t="n">
-        <v>95.07906983459162</v>
+        <v>98.34865271039307</v>
       </c>
       <c r="E4" t="n">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45033</v>
+        <v>45049</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45056</v>
+        <v>45063</v>
       </c>
       <c r="B5" t="n">
-        <v>83.76882844528247</v>
+        <v>91.00692191595373</v>
       </c>
       <c r="C5" t="n">
-        <v>69.1964476613762</v>
+        <v>73.74736004218722</v>
       </c>
       <c r="D5" t="n">
-        <v>97.41814812550635</v>
+        <v>107.7218261412583</v>
       </c>
       <c r="E5" t="n">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45049</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45063</v>
-      </c>
-      <c r="B6" t="n">
-        <v>93.49409359482573</v>
-      </c>
-      <c r="C6" t="n">
-        <v>78.50482660807924</v>
-      </c>
-      <c r="D6" t="n">
-        <v>107.7447320318659</v>
-      </c>
-      <c r="E6" t="n">
-        <v>73</v>
-      </c>
-      <c r="F6" s="2" t="n">
         <v>45056</v>
       </c>
     </row>
@@ -582,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,76 +617,50 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>341.6812963069652</v>
+        <v>234.4893233382474</v>
       </c>
       <c r="C2" t="n">
-        <v>18.48462323951898</v>
+        <v>15.31304422178188</v>
       </c>
       <c r="D2" t="n">
-        <v>18.48462323951898</v>
+        <v>15.31304422178188</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2800700490836209</v>
+        <v>0.2320158215421497</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2800700490836209</v>
+        <v>0.2320158215421497</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2456679339270154</v>
+        <v>0.207898007982618</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>486.2955184614186</v>
+        <v>354.1156199384835</v>
       </c>
       <c r="C3" t="n">
-        <v>22.05210916128928</v>
+        <v>18.81796003658429</v>
       </c>
       <c r="D3" t="n">
-        <v>22.05210916128928</v>
+        <v>15.23919683745717</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3341228660801406</v>
+        <v>0.1682598192076725</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3341228660801406</v>
+        <v>0.2466701632322428</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2862941543786485</v>
+        <v>0.1712982905433988</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>336.4737796910947</v>
-      </c>
-      <c r="C4" t="n">
-        <v>18.3432216279228</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.40995180707676</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.174410433787933</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2243626995807179</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1723965800592314</v>
-      </c>
-      <c r="H4" t="n">
         <v>0.3333333333333334</v>
       </c>
     </row>

--- a/modelos/OBAGRA4491074/OBAGRA4491074_Sell Out_metricas.xlsx
+++ b/modelos/OBAGRA4491074/OBAGRA4491074_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,81 +473,101 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45027</v>
+        <v>45022</v>
       </c>
       <c r="B2" t="n">
-        <v>81.31304422178188</v>
+        <v>85.69840899286437</v>
       </c>
       <c r="C2" t="n">
-        <v>63.68578079740745</v>
+        <v>71.53870352420846</v>
       </c>
       <c r="D2" t="n">
-        <v>98.69556262499847</v>
+        <v>101.2805248814868</v>
       </c>
       <c r="E2" t="n">
         <v>66</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45026</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45040</v>
+        <v>45027</v>
       </c>
       <c r="B3" t="n">
-        <v>82.45175114335096</v>
+        <v>81.79428141975171</v>
       </c>
       <c r="C3" t="n">
-        <v>64.69549099774923</v>
+        <v>67.99842329722308</v>
       </c>
       <c r="D3" t="n">
-        <v>99.56102245951895</v>
+        <v>97.6079079349954</v>
       </c>
       <c r="E3" t="n">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45033</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45056</v>
+        <v>45040</v>
       </c>
       <c r="B4" t="n">
-        <v>80.83758026023125</v>
+        <v>79.24741689899189</v>
       </c>
       <c r="C4" t="n">
-        <v>64.15466120700955</v>
+        <v>64.14514528812492</v>
       </c>
       <c r="D4" t="n">
-        <v>98.34865271039307</v>
+        <v>94.38405233080385</v>
       </c>
       <c r="E4" t="n">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45049</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="B5" t="n">
+        <v>81.56318227712315</v>
+      </c>
+      <c r="C5" t="n">
+        <v>65.79267777621151</v>
+      </c>
+      <c r="D5" t="n">
+        <v>96.02636637280361</v>
+      </c>
+      <c r="E5" t="n">
+        <v>108</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="B5" t="n">
-        <v>91.00692191595373</v>
-      </c>
-      <c r="C5" t="n">
-        <v>73.74736004218722</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107.7218261412583</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="B6" t="n">
+        <v>91.74572074169419</v>
+      </c>
+      <c r="C6" t="n">
+        <v>76.29664155494179</v>
+      </c>
+      <c r="D6" t="n">
+        <v>107.8332473762791</v>
+      </c>
+      <c r="E6" t="n">
         <v>73</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>45056</v>
       </c>
     </row>
@@ -562,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,50 +637,76 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>234.4893233382474</v>
+        <v>249.4593255663142</v>
       </c>
       <c r="C2" t="n">
-        <v>15.31304422178188</v>
+        <v>15.79428141975171</v>
       </c>
       <c r="D2" t="n">
-        <v>15.31304422178188</v>
+        <v>15.79428141975171</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2320158215421497</v>
+        <v>0.2393072942386623</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2320158215421497</v>
+        <v>0.2393072942386623</v>
       </c>
       <c r="G2" t="n">
-        <v>0.207898007982618</v>
+        <v>0.2137333226702358</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>388.02731685016</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19.69840899286437</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.69840899286437</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2984607423161268</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2984607423161268</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2597048858144709</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>354.1156199384835</v>
-      </c>
-      <c r="C3" t="n">
-        <v>18.81796003658429</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.23919683745717</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1682598192076725</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2466701632322428</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1712982905433988</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="B4" t="n">
+        <v>354.7964191227237</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18.83604043111831</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.31170718852638</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.182262629656019</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2447853492858968</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1842508840792353</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3333333333333334</v>
       </c>
     </row>
